--- a/data/scheduling_DNN/predict/0.9/result12.xlsx
+++ b/data/scheduling_DNN/predict/0.9/result12.xlsx
@@ -570,10 +570,10 @@
         <v>0.952603816986084</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4614620208740234</v>
+        <v>0.8753503561019897</v>
       </c>
       <c r="W2" t="n">
-        <v>0.2412202656269073</v>
+        <v>0.005968097131699324</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>1.334076881408691</v>
       </c>
       <c r="V3" t="n">
-        <v>0.654336154460907</v>
+        <v>0.3991079330444336</v>
       </c>
       <c r="W3" t="n">
-        <v>0.4620474576950073</v>
+        <v>0.8741669058799744</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.8956248760223389</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5760191679000854</v>
+        <v>0.871839165687561</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1021478101611137</v>
+        <v>0.0005657600122503936</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8877480030059814</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6521576642990112</v>
+        <v>0.3991046249866486</v>
       </c>
       <c r="W5" t="n">
-        <v>0.05550280585885048</v>
+        <v>0.2387723475694656</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.904541015625</v>
       </c>
       <c r="V6" t="n">
-        <v>0.708076536655426</v>
+        <v>0.4001704156398773</v>
       </c>
       <c r="W6" t="n">
-        <v>0.03859829157590866</v>
+        <v>0.2543896734714508</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8690299987792969</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4906106293201447</v>
+        <v>0.8805719017982483</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1432012170553207</v>
+        <v>0.0001332155225099996</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8919250965118408</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4903136193752289</v>
+        <v>0.868261992931366</v>
       </c>
       <c r="W8" t="n">
-        <v>0.161291778087616</v>
+        <v>0.0005599424475803971</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8653969764709473</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5030666589736938</v>
+        <v>0.8796389698982239</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1312832534313202</v>
+        <v>0.0002028343733400106</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.9151208400726318</v>
       </c>
       <c r="V10" t="n">
-        <v>0.3507492542266846</v>
+        <v>0.3991889655590057</v>
       </c>
       <c r="W10" t="n">
-        <v>0.3185153007507324</v>
+        <v>0.2661856710910797</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8685071468353271</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5044592022895813</v>
+        <v>0.4000004529953003</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1325309127569199</v>
+        <v>0.2194985151290894</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8527438640594482</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4904916286468506</v>
+        <v>0.8891893625259399</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1312266886234283</v>
+        <v>0.001328274374827743</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.9210989475250244</v>
       </c>
       <c r="V13" t="n">
-        <v>0.3470315337181091</v>
+        <v>0.5107368230819702</v>
       </c>
       <c r="W13" t="n">
-        <v>0.3295533955097198</v>
+        <v>0.168397068977356</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.9215590953826904</v>
       </c>
       <c r="V14" t="n">
-        <v>0.5042976140975952</v>
+        <v>0.5122324824333191</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1741071492433548</v>
+        <v>0.167548269033432</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9037859439849854</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5249706506729126</v>
+        <v>0.4025906622409821</v>
       </c>
       <c r="W15" t="n">
-        <v>0.143501028418541</v>
+        <v>0.2511967420578003</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8658750057220459</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4176277816295624</v>
+        <v>0.400141566991806</v>
       </c>
       <c r="W16" t="n">
-        <v>0.2009255737066269</v>
+        <v>0.2169076353311539</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8640758991241455</v>
       </c>
       <c r="V17" t="n">
-        <v>0.9755766987800598</v>
+        <v>0.5000544786453247</v>
       </c>
       <c r="W17" t="n">
-        <v>0.01243242807686329</v>
+        <v>0.1325116008520126</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8962569236755371</v>
       </c>
       <c r="V18" t="n">
-        <v>0.975210964679718</v>
+        <v>0.5269907116889954</v>
       </c>
       <c r="W18" t="n">
-        <v>0.006233740597963333</v>
+        <v>0.1363575309514999</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8587570190429688</v>
       </c>
       <c r="V19" t="n">
-        <v>0.4907757639884949</v>
+        <v>0.5167039036750793</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1354102045297623</v>
+        <v>0.1170003339648247</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8615858554840088</v>
       </c>
       <c r="V20" t="n">
-        <v>0.4176601767539978</v>
+        <v>0.402424544095993</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1970700025558472</v>
+        <v>0.210829108953476</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8600749969482422</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5826015472412109</v>
+        <v>0.5170248746871948</v>
       </c>
       <c r="W21" t="n">
-        <v>0.07699151337146759</v>
+        <v>0.1176833882927895</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.565654993057251</v>
       </c>
       <c r="V22" t="n">
-        <v>0.6863111853599548</v>
+        <v>0.8703476190567017</v>
       </c>
       <c r="W22" t="n">
-        <v>0.01455791667103767</v>
+        <v>0.09283759444952011</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5287930965423584</v>
       </c>
       <c r="V23" t="n">
-        <v>0.5908746719360352</v>
+        <v>0.4000192582607269</v>
       </c>
       <c r="W23" t="n">
-        <v>0.003854122012853622</v>
+        <v>0.01658270135521889</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5266461372375488</v>
       </c>
       <c r="V24" t="n">
-        <v>0.9755939245223999</v>
+        <v>0.4001741707324982</v>
       </c>
       <c r="W24" t="n">
-        <v>0.2015541195869446</v>
+        <v>0.01599515788257122</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5360538959503174</v>
       </c>
       <c r="V25" t="n">
-        <v>0.6992233991622925</v>
+        <v>0.3990913927555084</v>
       </c>
       <c r="W25" t="n">
-        <v>0.0266242865473032</v>
+        <v>0.01875872723758221</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5505869388580322</v>
       </c>
       <c r="V26" t="n">
-        <v>0.5906542539596558</v>
+        <v>0.8667485117912292</v>
       </c>
       <c r="W26" t="n">
-        <v>0.001605389756150544</v>
+        <v>0.099958136677742</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.543658971786499</v>
       </c>
       <c r="V27" t="n">
-        <v>0.417630136013031</v>
+        <v>0.4001524448394775</v>
       </c>
       <c r="W27" t="n">
-        <v>0.01588326692581177</v>
+        <v>0.02059412375092506</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5114798545837402</v>
       </c>
       <c r="V28" t="n">
-        <v>0.524641752243042</v>
+        <v>0.5235124826431274</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0001732355449348688</v>
+        <v>0.0001447841350454837</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5384080410003662</v>
       </c>
       <c r="V29" t="n">
-        <v>0.6547797918319702</v>
+        <v>0.8666388392448425</v>
       </c>
       <c r="W29" t="n">
-        <v>0.01354238484054804</v>
+        <v>0.1077354550361633</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5418980121612549</v>
       </c>
       <c r="V30" t="n">
-        <v>0.5263315439224243</v>
+        <v>0.5218167304992676</v>
       </c>
       <c r="W30" t="n">
-        <v>0.0002423149271635339</v>
+        <v>0.0004032578726764768</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5192830562591553</v>
       </c>
       <c r="V31" t="n">
-        <v>0.3719484806060791</v>
+        <v>0.508749783039093</v>
       </c>
       <c r="W31" t="n">
-        <v>0.02170747704803944</v>
+        <v>0.0001109498480218463</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5432279109954834</v>
       </c>
       <c r="V32" t="n">
-        <v>0.4897371828556061</v>
+        <v>0.5124944448471069</v>
       </c>
       <c r="W32" t="n">
-        <v>0.00286125810816884</v>
+        <v>0.0009445459581911564</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5152621269226074</v>
       </c>
       <c r="V33" t="n">
-        <v>0.6992341279983521</v>
+        <v>0.5180330872535706</v>
       </c>
       <c r="W33" t="n">
-        <v>0.0338456965982914</v>
+        <v>7.67822075431468e-06</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5551590919494629</v>
       </c>
       <c r="V34" t="n">
-        <v>0.6528818607330322</v>
+        <v>0.5251719355583191</v>
       </c>
       <c r="W34" t="n">
-        <v>0.009549739770591259</v>
+        <v>0.0008992295479401946</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5219850540161133</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4176654517650604</v>
+        <v>0.5171915292739868</v>
       </c>
       <c r="W35" t="n">
-        <v>0.01088257972151041</v>
+        <v>2.297787978022825e-05</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5172760486602783</v>
       </c>
       <c r="V36" t="n">
-        <v>0.5051093101501465</v>
+        <v>0.3999984860420227</v>
       </c>
       <c r="W36" t="n">
-        <v>0.0001480295322835445</v>
+        <v>0.01375402696430683</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5162608623504639</v>
       </c>
       <c r="V37" t="n">
-        <v>0.5251024961471558</v>
+        <v>0.8891056180000305</v>
       </c>
       <c r="W37" t="n">
-        <v>7.817448931746185e-05</v>
+        <v>0.1390132158994675</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5519909858703613</v>
       </c>
       <c r="V38" t="n">
-        <v>0.6538190245628357</v>
+        <v>0.4001459777355194</v>
       </c>
       <c r="W38" t="n">
-        <v>0.01036894973367453</v>
+        <v>0.02305690571665764</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.51957106590271</v>
       </c>
       <c r="V39" t="n">
-        <v>0.6533357501029968</v>
+        <v>0.4010786414146423</v>
       </c>
       <c r="W39" t="n">
-        <v>0.0178929902613163</v>
+        <v>0.01404045429080725</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5194029808044434</v>
       </c>
       <c r="V40" t="n">
-        <v>0.5258046388626099</v>
+        <v>0.4002067744731903</v>
       </c>
       <c r="W40" t="n">
-        <v>4.098122735740617e-05</v>
+        <v>0.01420773565769196</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5227441787719727</v>
       </c>
       <c r="V41" t="n">
-        <v>0.490833193063736</v>
+        <v>0.8727914094924927</v>
       </c>
       <c r="W41" t="n">
-        <v>0.00101831101346761</v>
+        <v>0.1225330606102943</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4032289981842041</v>
       </c>
       <c r="V42" t="n">
-        <v>0.6516773104667664</v>
+        <v>0.5188612937927246</v>
       </c>
       <c r="W42" t="n">
-        <v>0.06172656267881393</v>
+        <v>0.01337082777172327</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4273319244384766</v>
       </c>
       <c r="V43" t="n">
-        <v>0.6543079614639282</v>
+        <v>0.5187233686447144</v>
       </c>
       <c r="W43" t="n">
-        <v>0.05151811987161636</v>
+        <v>0.008352396078407764</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.387653112411499</v>
       </c>
       <c r="V44" t="n">
-        <v>0.5821697115898132</v>
+        <v>0.8847976326942444</v>
       </c>
       <c r="W44" t="n">
-        <v>0.0378367081284523</v>
+        <v>0.2471526712179184</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.408905029296875</v>
       </c>
       <c r="V45" t="n">
-        <v>0.9760575294494629</v>
+        <v>0.8862208127975464</v>
       </c>
       <c r="W45" t="n">
-        <v>0.3216619491577148</v>
+        <v>0.2278303503990173</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3895759582519531</v>
       </c>
       <c r="V46" t="n">
-        <v>0.490370512008667</v>
+        <v>0.5216277837753296</v>
       </c>
       <c r="W46" t="n">
-        <v>0.01015954185277224</v>
+        <v>0.01743768528103828</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4121971130371094</v>
       </c>
       <c r="V47" t="n">
-        <v>0.4638172388076782</v>
+        <v>0.399104118347168</v>
       </c>
       <c r="W47" t="n">
-        <v>0.002664637286216021</v>
+        <v>0.0001714265090413392</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3918960094451904</v>
       </c>
       <c r="V48" t="n">
-        <v>0.802417516708374</v>
+        <v>0.8695486187934875</v>
       </c>
       <c r="W48" t="n">
-        <v>0.1685279011726379</v>
+        <v>0.2281520217657089</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3871479034423828</v>
       </c>
       <c r="V49" t="n">
-        <v>0.3718892931938171</v>
+        <v>0.5165196061134338</v>
       </c>
       <c r="W49" t="n">
-        <v>0.000232825186685659</v>
+        <v>0.01673703826963902</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3896689414978027</v>
       </c>
       <c r="V50" t="n">
-        <v>0.3470365405082703</v>
+        <v>0.8838661313056946</v>
       </c>
       <c r="W50" t="n">
-        <v>0.001817521639168262</v>
+        <v>0.2442308664321899</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.386538028717041</v>
       </c>
       <c r="V51" t="n">
-        <v>0.4634905457496643</v>
+        <v>0.3999993205070496</v>
       </c>
       <c r="W51" t="n">
-        <v>0.005921689793467522</v>
+        <v>0.000181206371053122</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3959648609161377</v>
       </c>
       <c r="V52" t="n">
-        <v>0.3887981772422791</v>
+        <v>0.5203762650489807</v>
       </c>
       <c r="W52" t="n">
-        <v>5.136135587235913e-05</v>
+        <v>0.01547819748520851</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.4085009098052979</v>
       </c>
       <c r="V53" t="n">
-        <v>0.3507673740386963</v>
+        <v>0.3998841047286987</v>
       </c>
       <c r="W53" t="n">
-        <v>0.003333161119371653</v>
+        <v>7.424932846333832e-05</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3869621753692627</v>
       </c>
       <c r="V54" t="n">
-        <v>0.8045668601989746</v>
+        <v>0.4031440913677216</v>
       </c>
       <c r="W54" t="n">
-        <v>0.1743936687707901</v>
+        <v>0.0002618544094730169</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3857409954071045</v>
       </c>
       <c r="V55" t="n">
-        <v>0.4176304936408997</v>
+        <v>0.8688017129898071</v>
       </c>
       <c r="W55" t="n">
-        <v>0.001016940106637776</v>
+        <v>0.2333476543426514</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.42215895652771</v>
       </c>
       <c r="V56" t="n">
-        <v>0.4691958427429199</v>
+        <v>0.50562983751297</v>
       </c>
       <c r="W56" t="n">
-        <v>0.002212468767538667</v>
+        <v>0.006967388093471527</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3867459297180176</v>
       </c>
       <c r="V57" t="n">
-        <v>0.4907099008560181</v>
+        <v>0.4025871455669403</v>
       </c>
       <c r="W57" t="n">
-        <v>0.01080850698053837</v>
+        <v>0.0002509441110305488</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3957018852233887</v>
       </c>
       <c r="V58" t="n">
-        <v>0.5243822336196899</v>
+        <v>0.3992100656032562</v>
       </c>
       <c r="W58" t="n">
-        <v>0.01655863225460052</v>
+        <v>1.230732959811576e-05</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3904459476470947</v>
       </c>
       <c r="V59" t="n">
-        <v>0.4903536438941956</v>
+        <v>0.400981992483139</v>
       </c>
       <c r="W59" t="n">
-        <v>0.009981547482311726</v>
+        <v>0.0001110082375817001</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3833858966827393</v>
       </c>
       <c r="V60" t="n">
-        <v>0.5248926877975464</v>
+        <v>0.5176990032196045</v>
       </c>
       <c r="W60" t="n">
-        <v>0.02002417109906673</v>
+        <v>0.01804001070559025</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3862109184265137</v>
       </c>
       <c r="V61" t="n">
-        <v>0.8022168874740601</v>
+        <v>0.5262532234191895</v>
       </c>
       <c r="W61" t="n">
-        <v>0.1730609685182571</v>
+        <v>0.01961184665560722</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.9490561485290527</v>
       </c>
       <c r="V62" t="n">
-        <v>0.6992238759994507</v>
+        <v>0.3993098735809326</v>
       </c>
       <c r="W62" t="n">
-        <v>0.06241616606712341</v>
+        <v>0.3022209703922272</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>1.02036190032959</v>
       </c>
       <c r="V63" t="n">
-        <v>0.4176275134086609</v>
+        <v>0.8736470937728882</v>
       </c>
       <c r="W63" t="n">
-        <v>0.3632887303829193</v>
+        <v>0.02152523398399353</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8596169948577881</v>
       </c>
       <c r="V64" t="n">
-        <v>0.3721317946910858</v>
+        <v>0.4004512131214142</v>
       </c>
       <c r="W64" t="n">
-        <v>0.2376418262720108</v>
+        <v>0.2108332216739655</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8842320442199707</v>
       </c>
       <c r="V65" t="n">
-        <v>0.3710145056247711</v>
+        <v>0.5234715938568115</v>
       </c>
       <c r="W65" t="n">
-        <v>0.2633922696113586</v>
+        <v>0.1301480978727341</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8879318237304688</v>
       </c>
       <c r="V66" t="n">
-        <v>0.576347291469574</v>
+        <v>0.399994820356369</v>
       </c>
       <c r="W66" t="n">
-        <v>0.09708491712808609</v>
+        <v>0.2380825132131577</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8627638816833496</v>
       </c>
       <c r="V67" t="n">
-        <v>0.9755794405937195</v>
+        <v>0.40243199467659</v>
       </c>
       <c r="W67" t="n">
-        <v>0.01272734999656677</v>
+        <v>0.21190544962883</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8606820106506348</v>
       </c>
       <c r="V68" t="n">
-        <v>0.652911365032196</v>
+        <v>0.5170037746429443</v>
       </c>
       <c r="W68" t="n">
-        <v>0.04316864162683487</v>
+        <v>0.1181147322058678</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.9056169986724854</v>
       </c>
       <c r="V69" t="n">
-        <v>0.6525439023971558</v>
+        <v>0.8661755323410034</v>
       </c>
       <c r="W69" t="n">
-        <v>0.06404599547386169</v>
+        <v>0.00155562930740416</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8627009391784668</v>
       </c>
       <c r="V70" t="n">
-        <v>0.5763152837753296</v>
+        <v>0.399912565946579</v>
       </c>
       <c r="W70" t="n">
-        <v>0.08201674371957779</v>
+        <v>0.2141730785369873</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8650338649749756</v>
       </c>
       <c r="V71" t="n">
-        <v>0.5256670713424683</v>
+        <v>0.3991096913814545</v>
       </c>
       <c r="W71" t="n">
-        <v>0.1151698231697083</v>
+        <v>0.2170853316783905</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8658709526062012</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4176348447799683</v>
+        <v>0.5168888568878174</v>
       </c>
       <c r="W72" t="n">
-        <v>0.2009156048297882</v>
+        <v>0.121788501739502</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8623340129852295</v>
       </c>
       <c r="V73" t="n">
-        <v>0.838257908821106</v>
+        <v>0.3990981578826904</v>
       </c>
       <c r="W73" t="n">
-        <v>0.0005796587793156505</v>
+        <v>0.2145874500274658</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8941628932952881</v>
       </c>
       <c r="V74" t="n">
-        <v>0.6992213726043701</v>
+        <v>0.5180253386497498</v>
       </c>
       <c r="W74" t="n">
-        <v>0.03800219669938087</v>
+        <v>0.1414794623851776</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8654181957244873</v>
       </c>
       <c r="V75" t="n">
-        <v>0.6536403894424438</v>
+        <v>0.4009846448898315</v>
       </c>
       <c r="W75" t="n">
-        <v>0.04484983906149864</v>
+        <v>0.2156985253095627</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8610179424285889</v>
       </c>
       <c r="V76" t="n">
-        <v>0.5251706838607788</v>
+        <v>0.4001781642436981</v>
       </c>
       <c r="W76" t="n">
-        <v>0.1127933785319328</v>
+        <v>0.2123733013868332</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8773460388183594</v>
       </c>
       <c r="V77" t="n">
-        <v>0.7035881876945496</v>
+        <v>0.5178135633468628</v>
       </c>
       <c r="W77" t="n">
-        <v>0.03019179031252861</v>
+        <v>0.1292635947465897</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8589379787445068</v>
       </c>
       <c r="V78" t="n">
-        <v>0.6927068829536438</v>
+        <v>0.5288187861442566</v>
       </c>
       <c r="W78" t="n">
-        <v>0.02763277664780617</v>
+        <v>0.1089786812663078</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8573977947235107</v>
       </c>
       <c r="V79" t="n">
-        <v>0.3507806360721588</v>
+        <v>0.3999126255512238</v>
       </c>
       <c r="W79" t="n">
-        <v>0.2566609680652618</v>
+        <v>0.2092926800251007</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8649160861968994</v>
       </c>
       <c r="V80" t="n">
-        <v>0.3471212387084961</v>
+        <v>0.8691930770874023</v>
       </c>
       <c r="W80" t="n">
-        <v>0.2681114971637726</v>
+        <v>1.829265056585427e-05</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8949320316314697</v>
       </c>
       <c r="V81" t="n">
-        <v>0.9757341742515564</v>
+        <v>0.5174024701118469</v>
       </c>
       <c r="W81" t="n">
-        <v>0.006528986152261496</v>
+        <v>0.1425285637378693</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5693590641021729</v>
       </c>
       <c r="V82" t="n">
-        <v>0.5036088228225708</v>
+        <v>0.8588953614234924</v>
       </c>
       <c r="W82" t="n">
-        <v>0.00432309415191412</v>
+        <v>0.08383126556873322</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5428838729858398</v>
       </c>
       <c r="V83" t="n">
-        <v>0.4176522493362427</v>
+        <v>0.5212446451187134</v>
       </c>
       <c r="W83" t="n">
-        <v>0.01568295992910862</v>
+        <v>0.0004682561848312616</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5235159397125244</v>
       </c>
       <c r="V84" t="n">
-        <v>0.4692052006721497</v>
+        <v>0.8729594349861145</v>
       </c>
       <c r="W84" t="n">
-        <v>0.002949656452983618</v>
+        <v>0.1221107542514801</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5218908786773682</v>
       </c>
       <c r="V85" t="n">
-        <v>0.5049243569374084</v>
+        <v>0.5253253579139709</v>
       </c>
       <c r="W85" t="n">
-        <v>0.0002878628729376942</v>
+        <v>1.179564787889831e-05</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5189769268035889</v>
       </c>
       <c r="V86" t="n">
-        <v>0.3518496155738831</v>
+        <v>0.8811653852462769</v>
       </c>
       <c r="W86" t="n">
-        <v>0.02793153747916222</v>
+        <v>0.1311804801225662</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5201320648193359</v>
       </c>
       <c r="V87" t="n">
-        <v>0.5947228074073792</v>
+        <v>0.8732256889343262</v>
       </c>
       <c r="W87" t="n">
-        <v>0.005563778802752495</v>
+        <v>0.1246751099824905</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5199019908905029</v>
       </c>
       <c r="V88" t="n">
-        <v>0.4615180790424347</v>
+        <v>0.5223196148872375</v>
       </c>
       <c r="W88" t="n">
-        <v>0.003408681135624647</v>
+        <v>5.844905899721198e-06</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5222599506378174</v>
       </c>
       <c r="V89" t="n">
-        <v>0.7080770134925842</v>
+        <v>0.3990865051746368</v>
       </c>
       <c r="W89" t="n">
-        <v>0.0345279797911644</v>
+        <v>0.01517169736325741</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5216119289398193</v>
       </c>
       <c r="V90" t="n">
-        <v>0.4176395535469055</v>
+        <v>0.8884497880935669</v>
       </c>
       <c r="W90" t="n">
-        <v>0.01081025507301092</v>
+        <v>0.1345700174570084</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5207319259643555</v>
       </c>
       <c r="V91" t="n">
-        <v>0.590633749961853</v>
+        <v>0.3991135060787201</v>
       </c>
       <c r="W91" t="n">
-        <v>0.0048862649127841</v>
+        <v>0.01479103974997997</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.6132528781890869</v>
       </c>
       <c r="V92" t="n">
-        <v>0.4611299932003021</v>
+        <v>0.8714213967323303</v>
       </c>
       <c r="W92" t="n">
-        <v>0.02314137294888496</v>
+        <v>0.06665098667144775</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5233850479125977</v>
       </c>
       <c r="V93" t="n">
-        <v>0.9755698442459106</v>
+        <v>0.3990883231163025</v>
       </c>
       <c r="W93" t="n">
-        <v>0.2044710963964462</v>
+        <v>0.01544967573136091</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5228369235992432</v>
       </c>
       <c r="V94" t="n">
-        <v>0.5050196051597595</v>
+        <v>0.86380535364151</v>
       </c>
       <c r="W94" t="n">
-        <v>0.0003174568410031497</v>
+        <v>0.1162594705820084</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5205650329589844</v>
       </c>
       <c r="V95" t="n">
-        <v>0.4908333420753479</v>
+        <v>0.4001335203647614</v>
       </c>
       <c r="W95" t="n">
-        <v>0.0008839734364300966</v>
+        <v>0.01450374908745289</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5235052108764648</v>
       </c>
       <c r="V96" t="n">
-        <v>0.8020263910293579</v>
+        <v>0.8654325008392334</v>
       </c>
       <c r="W96" t="n">
-        <v>0.07757404446601868</v>
+        <v>0.1169142723083496</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5544438362121582</v>
       </c>
       <c r="V97" t="n">
-        <v>0.8031194806098938</v>
+        <v>0.4001587629318237</v>
       </c>
       <c r="W97" t="n">
-        <v>0.06183957681059837</v>
+        <v>0.02380388416349888</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5195891857147217</v>
       </c>
       <c r="V98" t="n">
-        <v>0.8339731693267822</v>
+        <v>0.3996215760707855</v>
       </c>
       <c r="W98" t="n">
-        <v>0.09883728623390198</v>
+        <v>0.01439222693443298</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5229358673095703</v>
       </c>
       <c r="V99" t="n">
-        <v>0.7082430720329285</v>
+        <v>0.5658469200134277</v>
       </c>
       <c r="W99" t="n">
-        <v>0.03433876112103462</v>
+        <v>0.00184135849121958</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5188920497894287</v>
       </c>
       <c r="V100" t="n">
-        <v>0.4908617734909058</v>
+        <v>0.8919389843940735</v>
       </c>
       <c r="W100" t="n">
-        <v>0.0007856963784433901</v>
+        <v>0.1391640156507492</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5197830200195312</v>
       </c>
       <c r="V101" t="n">
-        <v>0.3783526420593262</v>
+        <v>0.8863726258277893</v>
       </c>
       <c r="W101" t="n">
-        <v>0.02000255137681961</v>
+        <v>0.1343879401683807</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.3988430500030518</v>
       </c>
       <c r="V102" t="n">
-        <v>0.5247749090194702</v>
+        <v>0.4030504822731018</v>
       </c>
       <c r="W102" t="n">
-        <v>0.01585883274674416</v>
+        <v>1.770248672983143e-05</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.5032210350036621</v>
       </c>
       <c r="V103" t="n">
-        <v>0.5762413144111633</v>
+        <v>0.5174551606178284</v>
       </c>
       <c r="W103" t="n">
-        <v>0.00533196097239852</v>
+        <v>0.0002026103320531547</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4133470058441162</v>
       </c>
       <c r="V104" t="n">
-        <v>0.3785795569419861</v>
+        <v>0.875204861164093</v>
       </c>
       <c r="W104" t="n">
-        <v>0.001208775560371578</v>
+        <v>0.2133126854896545</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4071540832519531</v>
       </c>
       <c r="V105" t="n">
-        <v>0.653571605682373</v>
+        <v>0.3998940587043762</v>
       </c>
       <c r="W105" t="n">
-        <v>0.06072159484028816</v>
+        <v>5.270795736578293e-05</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.4157869815826416</v>
       </c>
       <c r="V106" t="n">
-        <v>0.6928427815437317</v>
+        <v>0.400410532951355</v>
       </c>
       <c r="W106" t="n">
-        <v>0.07675991952419281</v>
+        <v>0.0002364351676078513</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3899369239807129</v>
       </c>
       <c r="V107" t="n">
-        <v>0.6535565853118896</v>
+        <v>0.8667105436325073</v>
       </c>
       <c r="W107" t="n">
-        <v>0.06949532777070999</v>
+        <v>0.2273130863904953</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.392441987991333</v>
       </c>
       <c r="V108" t="n">
-        <v>0.3507759571075439</v>
+        <v>0.8734657764434814</v>
       </c>
       <c r="W108" t="n">
-        <v>0.001736058155074716</v>
+        <v>0.231383889913559</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.4405429363250732</v>
       </c>
       <c r="V109" t="n">
-        <v>0.4175667762756348</v>
+        <v>0.4004506170749664</v>
       </c>
       <c r="W109" t="n">
-        <v>0.0005279039032757282</v>
+        <v>0.001607394078746438</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3952469825744629</v>
       </c>
       <c r="V110" t="n">
-        <v>0.802345335483551</v>
+        <v>0.5284273028373718</v>
       </c>
       <c r="W110" t="n">
-        <v>0.1657290756702423</v>
+        <v>0.01773699745535851</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3965070247650146</v>
       </c>
       <c r="V111" t="n">
-        <v>0.8012609481811523</v>
+        <v>0.5224009156227112</v>
       </c>
       <c r="W111" t="n">
-        <v>0.163825735449791</v>
+        <v>0.01584927178919315</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4063401222229004</v>
       </c>
       <c r="V112" t="n">
-        <v>0.5058352947235107</v>
+        <v>0.5210867524147034</v>
       </c>
       <c r="W112" t="n">
-        <v>0.009899289347231388</v>
+        <v>0.01316678896546364</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3901200294494629</v>
       </c>
       <c r="V113" t="n">
-        <v>0.6537992358207703</v>
+        <v>0.8717191815376282</v>
       </c>
       <c r="W113" t="n">
-        <v>0.06952672451734543</v>
+        <v>0.2319377362728119</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3878600597381592</v>
       </c>
       <c r="V114" t="n">
-        <v>0.3507419228553772</v>
+        <v>0.5258581638336182</v>
       </c>
       <c r="W114" t="n">
-        <v>0.001377756125293672</v>
+        <v>0.01904347725212574</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.4553508758544922</v>
       </c>
       <c r="V115" t="n">
-        <v>0.8047276735305786</v>
+        <v>0.4025581181049347</v>
       </c>
       <c r="W115" t="n">
-        <v>0.1220641434192657</v>
+        <v>0.00278707523830235</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3905739784240723</v>
       </c>
       <c r="V116" t="n">
-        <v>0.5823945999145508</v>
+        <v>0.401102602481842</v>
       </c>
       <c r="W116" t="n">
-        <v>0.03679515048861504</v>
+        <v>0.0001108519281842746</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3926560878753662</v>
       </c>
       <c r="V117" t="n">
-        <v>0.5257673263549805</v>
+        <v>0.5172979235649109</v>
       </c>
       <c r="W117" t="n">
-        <v>0.0177186019718647</v>
+        <v>0.01553558744490147</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.3983628749847412</v>
       </c>
       <c r="V118" t="n">
-        <v>0.5406032800674438</v>
+        <v>0.5180730819702148</v>
       </c>
       <c r="W118" t="n">
-        <v>0.02023233287036419</v>
+        <v>0.01433053333312273</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3890290260314941</v>
       </c>
       <c r="V119" t="n">
-        <v>0.5762016177177429</v>
+        <v>0.4009858071804047</v>
       </c>
       <c r="W119" t="n">
-        <v>0.03503357991576195</v>
+        <v>0.0001429646217729896</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4026010036468506</v>
       </c>
       <c r="V120" t="n">
-        <v>0.6990503668785095</v>
+        <v>0.5239431858062744</v>
       </c>
       <c r="W120" t="n">
-        <v>0.08788222819566727</v>
+        <v>0.01472392491996288</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.4272909164428711</v>
       </c>
       <c r="V121" t="n">
-        <v>0.5761433839797974</v>
+        <v>0.5122751593589783</v>
       </c>
       <c r="W121" t="n">
-        <v>0.02215705625712872</v>
+        <v>0.007222321350127459</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8608248233795166</v>
       </c>
       <c r="V122" t="n">
-        <v>0.8004674911499023</v>
+        <v>0.8798168301582336</v>
       </c>
       <c r="W122" t="n">
-        <v>0.003643007483333349</v>
+        <v>0.0003606963146012276</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9513201713562012</v>
       </c>
       <c r="V123" t="n">
-        <v>0.8046363592147827</v>
+        <v>0.4001396298408508</v>
       </c>
       <c r="W123" t="n">
-        <v>0.02151614055037498</v>
+        <v>0.3037999868392944</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.9143290519714355</v>
       </c>
       <c r="V124" t="n">
-        <v>0.6538669466972351</v>
+        <v>0.8750676512718201</v>
       </c>
       <c r="W124" t="n">
-        <v>0.06784050911664963</v>
+        <v>0.00154145760461688</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.9267010688781738</v>
       </c>
       <c r="V125" t="n">
-        <v>0.4896917641162872</v>
+        <v>0.8731800317764282</v>
       </c>
       <c r="W125" t="n">
-        <v>0.1909771263599396</v>
+        <v>0.002864501439034939</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8740890026092529</v>
       </c>
       <c r="V126" t="n">
-        <v>0.5245808959007263</v>
+        <v>0.4004504084587097</v>
       </c>
       <c r="W126" t="n">
-        <v>0.1221559196710587</v>
+        <v>0.2243335247039795</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8638429641723633</v>
       </c>
       <c r="V127" t="n">
-        <v>0.4638742208480835</v>
+        <v>0.5231620669364929</v>
       </c>
       <c r="W127" t="n">
-        <v>0.159974992275238</v>
+        <v>0.1160634756088257</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8481719493865967</v>
       </c>
       <c r="V128" t="n">
-        <v>0.5051230192184448</v>
+        <v>0.5168776512145996</v>
       </c>
       <c r="W128" t="n">
-        <v>0.1176825687289238</v>
+        <v>0.1097559109330177</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.9064929485321045</v>
       </c>
       <c r="V129" t="n">
-        <v>0.9755281805992126</v>
+        <v>0.5178802609443665</v>
       </c>
       <c r="W129" t="n">
-        <v>0.004765863064676523</v>
+        <v>0.1510198265314102</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.9031860828399658</v>
       </c>
       <c r="V130" t="n">
-        <v>0.3507571518421173</v>
+        <v>0.4001652002334595</v>
       </c>
       <c r="W130" t="n">
-        <v>0.3051777482032776</v>
+        <v>0.253030002117157</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8651058673858643</v>
       </c>
       <c r="V131" t="n">
-        <v>0.4909484088420868</v>
+        <v>0.5218011140823364</v>
       </c>
       <c r="W131" t="n">
-        <v>0.1399938017129898</v>
+        <v>0.1178581565618515</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.879828929901123</v>
       </c>
       <c r="V132" t="n">
-        <v>0.5873388648033142</v>
+        <v>0.5083197355270386</v>
       </c>
       <c r="W132" t="n">
-        <v>0.08555043488740921</v>
+        <v>0.1380190849304199</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.9513399600982666</v>
       </c>
       <c r="V133" t="n">
-        <v>0.97564297914505</v>
+        <v>0.3992010653018951</v>
       </c>
       <c r="W133" t="n">
-        <v>0.0005906367441639304</v>
+        <v>0.3048574030399323</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8587989807128906</v>
       </c>
       <c r="V134" t="n">
-        <v>0.4175129532814026</v>
+        <v>0.8790454268455505</v>
       </c>
       <c r="W134" t="n">
-        <v>0.1947333514690399</v>
+        <v>0.0004099185753148049</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8632290363311768</v>
       </c>
       <c r="V135" t="n">
-        <v>0.6532728672027588</v>
+        <v>0.3996013700962067</v>
       </c>
       <c r="W135" t="n">
-        <v>0.04408159479498863</v>
+        <v>0.2149506062269211</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.862076997756958</v>
       </c>
       <c r="V136" t="n">
-        <v>0.3515170216560364</v>
+        <v>0.8721727132797241</v>
       </c>
       <c r="W136" t="n">
-        <v>0.2606714963912964</v>
+        <v>0.000101923469628673</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.9197351932525635</v>
       </c>
       <c r="V137" t="n">
-        <v>0.4634823501110077</v>
+        <v>0.3996248841285706</v>
       </c>
       <c r="W137" t="n">
-        <v>0.2081666588783264</v>
+        <v>0.2705147266387939</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8655719757080078</v>
       </c>
       <c r="V138" t="n">
-        <v>0.3507497906684875</v>
+        <v>0.52778160572052</v>
       </c>
       <c r="W138" t="n">
-        <v>0.2650418877601624</v>
+        <v>0.1141023337841034</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8670549392700195</v>
       </c>
       <c r="V139" t="n">
-        <v>0.3507649004459381</v>
+        <v>0.4004287123680115</v>
       </c>
       <c r="W139" t="n">
-        <v>0.2665554285049438</v>
+        <v>0.2177400290966034</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8746049404144287</v>
       </c>
       <c r="V140" t="n">
-        <v>0.5756250023841858</v>
+        <v>0.3990759253501892</v>
       </c>
       <c r="W140" t="n">
-        <v>0.08938900381326675</v>
+        <v>0.2261278480291367</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.915614128112793</v>
       </c>
       <c r="V141" t="n">
-        <v>0.8046457171440125</v>
+        <v>0.5175812840461731</v>
       </c>
       <c r="W141" t="n">
-        <v>0.01231398805975914</v>
+        <v>0.1584301441907883</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5312681198120117</v>
       </c>
       <c r="V142" t="n">
-        <v>0.3789054155349731</v>
+        <v>0.8681628704071045</v>
       </c>
       <c r="W142" t="n">
-        <v>0.02321439422667027</v>
+        <v>0.1134980693459511</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5191421508789062</v>
       </c>
       <c r="V143" t="n">
-        <v>0.6542560458183289</v>
+        <v>0.3998831212520599</v>
       </c>
       <c r="W143" t="n">
-        <v>0.01825576461851597</v>
+        <v>0.01422271598130465</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5196027755737305</v>
       </c>
       <c r="V144" t="n">
-        <v>0.371780127286911</v>
+        <v>0.4009593427181244</v>
       </c>
       <c r="W144" t="n">
-        <v>0.02185153588652611</v>
+        <v>0.01407626457512379</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5180189609527588</v>
       </c>
       <c r="V145" t="n">
-        <v>0.8296811580657959</v>
+        <v>0.8833900094032288</v>
       </c>
       <c r="W145" t="n">
-        <v>0.0971333235502243</v>
+        <v>0.1334960013628006</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5724101066589355</v>
       </c>
       <c r="V146" t="n">
-        <v>0.5038111805915833</v>
+        <v>0.8749069571495056</v>
       </c>
       <c r="W146" t="n">
-        <v>0.004705812782049179</v>
+        <v>0.09150434285402298</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5305349826812744</v>
       </c>
       <c r="V147" t="n">
-        <v>0.3507855832576752</v>
+        <v>0.8681893348693848</v>
       </c>
       <c r="W147" t="n">
-        <v>0.03230984508991241</v>
+        <v>0.1140104606747627</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5220389366149902</v>
       </c>
       <c r="V148" t="n">
-        <v>0.5760207772254944</v>
+        <v>0.4004256725311279</v>
       </c>
       <c r="W148" t="n">
-        <v>0.002914039185270667</v>
+        <v>0.01478978618979454</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5190541744232178</v>
       </c>
       <c r="V149" t="n">
-        <v>0.6926920413970947</v>
+        <v>0.3990927040576935</v>
       </c>
       <c r="W149" t="n">
-        <v>0.03015010803937912</v>
+        <v>0.01439075451344252</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5187580585479736</v>
       </c>
       <c r="V150" t="n">
-        <v>0.5045692920684814</v>
+        <v>0.4025111198425293</v>
       </c>
       <c r="W150" t="n">
-        <v>0.0002013210905715823</v>
+        <v>0.0135133508592844</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5137729644775391</v>
       </c>
       <c r="V151" t="n">
-        <v>0.5762090086936951</v>
+        <v>0.4025945067405701</v>
       </c>
       <c r="W151" t="n">
-        <v>0.003898259717971087</v>
+        <v>0.01236064918339252</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5403671264648438</v>
       </c>
       <c r="V152" t="n">
-        <v>0.4637985229492188</v>
+        <v>0.8699756264686584</v>
       </c>
       <c r="W152" t="n">
-        <v>0.005862751044332981</v>
+        <v>0.1086417660117149</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5196170806884766</v>
       </c>
       <c r="V153" t="n">
-        <v>0.6992434859275818</v>
+        <v>0.3991126120090485</v>
       </c>
       <c r="W153" t="n">
-        <v>0.03226564452052116</v>
+        <v>0.01452132686972618</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5132629871368408</v>
       </c>
       <c r="V154" t="n">
-        <v>0.5245010852813721</v>
+        <v>0.5156241059303284</v>
       </c>
       <c r="W154" t="n">
-        <v>0.0001262948499061167</v>
+        <v>5.574881924985675e-06</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.519340991973877</v>
       </c>
       <c r="V155" t="n">
-        <v>0.4174875020980835</v>
+        <v>0.8793671131134033</v>
       </c>
       <c r="W155" t="n">
-        <v>0.01037413347512484</v>
+        <v>0.1296188086271286</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5175490379333496</v>
       </c>
       <c r="V156" t="n">
-        <v>0.6534236073493958</v>
+        <v>0.871999979019165</v>
       </c>
       <c r="W156" t="n">
-        <v>0.01846189796924591</v>
+        <v>0.1256354749202728</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5668008327484131</v>
       </c>
       <c r="V157" t="n">
-        <v>0.4175422191619873</v>
+        <v>0.888113796710968</v>
       </c>
       <c r="W157" t="n">
-        <v>0.02227813377976418</v>
+        <v>0.1032420173287392</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5193181037902832</v>
       </c>
       <c r="V158" t="n">
-        <v>0.9751924276351929</v>
+        <v>0.5292481184005737</v>
       </c>
       <c r="W158" t="n">
-        <v>0.207821398973465</v>
+        <v>9.860518912319094e-05</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5185708999633789</v>
       </c>
       <c r="V159" t="n">
-        <v>0.417653352022171</v>
+        <v>0.4025669097900391</v>
       </c>
       <c r="W159" t="n">
-        <v>0.01018435135483742</v>
+        <v>0.01345692574977875</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.519956111907959</v>
       </c>
       <c r="V160" t="n">
-        <v>0.5248144865036011</v>
+        <v>0.8895137906074524</v>
       </c>
       <c r="W160" t="n">
-        <v>2.36038031289354e-05</v>
+        <v>0.1365728825330734</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.514286994934082</v>
       </c>
       <c r="V161" t="n">
-        <v>0.4907905161380768</v>
+        <v>0.5320651531219482</v>
       </c>
       <c r="W161" t="n">
-        <v>0.0005520845297724009</v>
+        <v>0.0003160629130434245</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3928680419921875</v>
       </c>
       <c r="V162" t="n">
-        <v>0.8004976511001587</v>
+        <v>0.5173903703689575</v>
       </c>
       <c r="W162" t="n">
-        <v>0.1661618947982788</v>
+        <v>0.01550581026822329</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3900651931762695</v>
       </c>
       <c r="V163" t="n">
-        <v>0.6538257002830505</v>
+        <v>0.3990916609764099</v>
       </c>
       <c r="W163" t="n">
-        <v>0.06956960260868073</v>
+        <v>8.147711923811585e-05</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3904728889465332</v>
       </c>
       <c r="V164" t="n">
-        <v>0.5048985481262207</v>
+        <v>0.3992040455341339</v>
       </c>
       <c r="W164" t="n">
-        <v>0.01309323124587536</v>
+        <v>7.623309647897258e-05</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3922960758209229</v>
       </c>
       <c r="V165" t="n">
-        <v>0.800457239151001</v>
+        <v>0.5454593300819397</v>
       </c>
       <c r="W165" t="n">
-        <v>0.166595533490181</v>
+        <v>0.02345898188650608</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3912689685821533</v>
       </c>
       <c r="V166" t="n">
-        <v>0.5248074531555176</v>
+        <v>0.3999056220054626</v>
       </c>
       <c r="W166" t="n">
-        <v>0.01783252693712711</v>
+        <v>7.459178596036509e-05</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3908958435058594</v>
       </c>
       <c r="V167" t="n">
-        <v>0.8340836763381958</v>
+        <v>0.3992067277431488</v>
       </c>
       <c r="W167" t="n">
-        <v>0.1964154541492462</v>
+        <v>6.907079659868032e-05</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3913590908050537</v>
       </c>
       <c r="V168" t="n">
-        <v>0.975181519985199</v>
+        <v>0.8708351254463196</v>
       </c>
       <c r="W168" t="n">
-        <v>0.3408486247062683</v>
+        <v>0.2298972606658936</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3933620452880859</v>
       </c>
       <c r="V169" t="n">
-        <v>0.3783542811870575</v>
+        <v>0.402495414018631</v>
       </c>
       <c r="W169" t="n">
-        <v>0.0002252329868497327</v>
+        <v>8.341842476511374e-05</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.4011070728302002</v>
       </c>
       <c r="V170" t="n">
-        <v>0.6533793210983276</v>
+        <v>0.5174145698547363</v>
       </c>
       <c r="W170" t="n">
-        <v>0.06364128738641739</v>
+        <v>0.01352743431925774</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3898968696594238</v>
       </c>
       <c r="V171" t="n">
-        <v>0.3507460951805115</v>
+        <v>0.3991113603115082</v>
       </c>
       <c r="W171" t="n">
-        <v>0.00153278314974159</v>
+        <v>8.490683831041679e-05</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.4136419296264648</v>
       </c>
       <c r="V172" t="n">
-        <v>0.503772497177124</v>
+        <v>0.8620651960372925</v>
       </c>
       <c r="W172" t="n">
-        <v>0.008123518899083138</v>
+        <v>0.2010834217071533</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.4084708690643311</v>
       </c>
       <c r="V173" t="n">
-        <v>0.5870838761329651</v>
+        <v>0.5174993872642517</v>
       </c>
       <c r="W173" t="n">
-        <v>0.03190260753035545</v>
+        <v>0.01188721787184477</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4371118545532227</v>
       </c>
       <c r="V174" t="n">
-        <v>0.417652815580368</v>
+        <v>0.5130810737609863</v>
       </c>
       <c r="W174" t="n">
-        <v>0.0003786541929002851</v>
+        <v>0.005771322175860405</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.4074561595916748</v>
       </c>
       <c r="V175" t="n">
-        <v>0.4175510704517365</v>
+        <v>0.3996009528636932</v>
       </c>
       <c r="W175" t="n">
-        <v>0.0001019072224153206</v>
+        <v>6.170427514007315e-05</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.4057528972625732</v>
       </c>
       <c r="V176" t="n">
-        <v>0.4611244201660156</v>
+        <v>0.528658926486969</v>
       </c>
       <c r="W176" t="n">
-        <v>0.003066005650907755</v>
+        <v>0.01510589197278023</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4089059829711914</v>
       </c>
       <c r="V177" t="n">
-        <v>0.6862813830375671</v>
+        <v>0.3991101384162903</v>
       </c>
       <c r="W177" t="n">
-        <v>0.07693710923194885</v>
+        <v>9.595857409294695e-05</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.393873929977417</v>
       </c>
       <c r="V178" t="n">
-        <v>0.3712720274925232</v>
+        <v>0.400158166885376</v>
       </c>
       <c r="W178" t="n">
-        <v>0.0005108459736220539</v>
+        <v>3.949163510696962e-05</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3903629779815674</v>
       </c>
       <c r="V179" t="n">
-        <v>0.3782425820827484</v>
+        <v>0.5027337074279785</v>
       </c>
       <c r="W179" t="n">
-        <v>0.0001469039998482913</v>
+        <v>0.01262718066573143</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3920438289642334</v>
       </c>
       <c r="V180" t="n">
-        <v>0.372467577457428</v>
+        <v>0.5260083675384521</v>
       </c>
       <c r="W180" t="n">
-        <v>0.0003832296351902187</v>
+        <v>0.01794649846851826</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4498839378356934</v>
       </c>
       <c r="V181" t="n">
-        <v>0.3507598340511322</v>
+        <v>0.8742998242378235</v>
       </c>
       <c r="W181" t="n">
-        <v>0.009825588203966618</v>
+        <v>0.1801288425922394</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.882655143737793</v>
       </c>
       <c r="V182" t="n">
-        <v>0.3794727325439453</v>
+        <v>0.5111889839172363</v>
       </c>
       <c r="W182" t="n">
-        <v>0.2531925439834595</v>
+        <v>0.1379871070384979</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.8674390316009521</v>
       </c>
       <c r="V183" t="n">
-        <v>0.5045288801193237</v>
+        <v>0.5178463459014893</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1317037791013718</v>
+        <v>0.1222150474786758</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.893139123916626</v>
       </c>
       <c r="V184" t="n">
-        <v>0.6926973462104797</v>
+        <v>0.3993295431137085</v>
       </c>
       <c r="W184" t="n">
-        <v>0.04017690569162369</v>
+        <v>0.2438479065895081</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.927448034286499</v>
       </c>
       <c r="V185" t="n">
-        <v>0.8000637888908386</v>
+        <v>0.4001420438289642</v>
       </c>
       <c r="W185" t="n">
-        <v>0.01622674614191055</v>
+        <v>0.2780515849590302</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8640480041503906</v>
       </c>
       <c r="V186" t="n">
-        <v>0.4176262617111206</v>
+        <v>0.530708372592926</v>
       </c>
       <c r="W186" t="n">
-        <v>0.1992923766374588</v>
+        <v>0.1111153066158295</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8874120712280273</v>
       </c>
       <c r="V187" t="n">
-        <v>0.5051002502441406</v>
+        <v>0.4026165902614594</v>
       </c>
       <c r="W187" t="n">
-        <v>0.1461623311042786</v>
+        <v>0.2350266575813293</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8601458072662354</v>
       </c>
       <c r="V188" t="n">
-        <v>0.5825173258781433</v>
+        <v>0.5312243103981018</v>
       </c>
       <c r="W188" t="n">
-        <v>0.07707757502794266</v>
+        <v>0.1081893518567085</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.9242739677429199</v>
       </c>
       <c r="V189" t="n">
-        <v>0.4904178380966187</v>
+        <v>0.866487443447113</v>
       </c>
       <c r="W189" t="n">
-        <v>0.1882311403751373</v>
+        <v>0.003339282469823956</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8668110370635986</v>
       </c>
       <c r="V190" t="n">
-        <v>0.4903903901576996</v>
+        <v>0.3990834653377533</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1416925042867661</v>
+        <v>0.2187690883874893</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8819270133972168</v>
       </c>
       <c r="V191" t="n">
-        <v>0.9757455587387085</v>
+        <v>0.3999854922294617</v>
       </c>
       <c r="W191" t="n">
-        <v>0.008801919408142567</v>
+        <v>0.2322676330804825</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8556089401245117</v>
       </c>
       <c r="V192" t="n">
-        <v>0.5822299122810364</v>
+        <v>0.8706281185150146</v>
       </c>
       <c r="W192" t="n">
-        <v>0.0747360959649086</v>
+        <v>0.0002255757135571912</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.9200839996337891</v>
       </c>
       <c r="V193" t="n">
-        <v>0.4634853303432465</v>
+        <v>0.3991153240203857</v>
       </c>
       <c r="W193" t="n">
-        <v>0.2084823399782181</v>
+        <v>0.271408349275589</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8683309555053711</v>
       </c>
       <c r="V194" t="n">
-        <v>0.3507537245750427</v>
+        <v>0.4036097228527069</v>
       </c>
       <c r="W194" t="n">
-        <v>0.2678861916065216</v>
+        <v>0.2159658223390579</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8612608909606934</v>
       </c>
       <c r="V195" t="n">
-        <v>0.653493344783783</v>
+        <v>0.5669702291488647</v>
       </c>
       <c r="W195" t="n">
-        <v>0.0431673526763916</v>
+        <v>0.08660699427127838</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8564550876617432</v>
       </c>
       <c r="V196" t="n">
-        <v>0.4176313579082489</v>
+        <v>0.8736817836761475</v>
       </c>
       <c r="W196" t="n">
-        <v>0.1925662606954575</v>
+        <v>0.0002967590698972344</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.9155089855194092</v>
       </c>
       <c r="V197" t="n">
-        <v>0.5054473876953125</v>
+        <v>0.5180100798606873</v>
       </c>
       <c r="W197" t="n">
-        <v>0.1681505143642426</v>
+        <v>0.1580053865909576</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8606579303741455</v>
       </c>
       <c r="V198" t="n">
-        <v>0.3518537282943726</v>
+        <v>0.875170111656189</v>
       </c>
       <c r="W198" t="n">
-        <v>0.2588817179203033</v>
+        <v>0.0002106034080497921</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8633909225463867</v>
       </c>
       <c r="V199" t="n">
-        <v>0.5762905478477478</v>
+        <v>0.8724340796470642</v>
       </c>
       <c r="W199" t="n">
-        <v>0.08242662250995636</v>
+        <v>8.177869312930852e-05</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8620779514312744</v>
       </c>
       <c r="V200" t="n">
-        <v>0.6535108089447021</v>
+        <v>0.868439257144928</v>
       </c>
       <c r="W200" t="n">
-        <v>0.04350025206804276</v>
+        <v>4.046620961162262e-05</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.930138111114502</v>
       </c>
       <c r="V201" t="n">
-        <v>0.801636278629303</v>
+        <v>0.3990989625453949</v>
       </c>
       <c r="W201" t="n">
-        <v>0.01651272177696228</v>
+        <v>0.2820025384426117</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5199649333953857</v>
       </c>
       <c r="V202" t="n">
-        <v>0.3720027506351471</v>
+        <v>0.4009530544281006</v>
       </c>
       <c r="W202" t="n">
-        <v>0.02189280837774277</v>
+        <v>0.01416382752358913</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5156650543212891</v>
       </c>
       <c r="V203" t="n">
-        <v>0.8337250947952271</v>
+        <v>0.856221616268158</v>
       </c>
       <c r="W203" t="n">
-        <v>0.1011621877551079</v>
+        <v>0.1159787699580193</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5371429920196533</v>
       </c>
       <c r="V204" t="n">
-        <v>0.8039833903312683</v>
+        <v>0.5669174790382385</v>
       </c>
       <c r="W204" t="n">
-        <v>0.0712037980556488</v>
+        <v>0.0008865200798027217</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5184080600738525</v>
       </c>
       <c r="V205" t="n">
-        <v>0.6539149880409241</v>
+        <v>0.5282590389251709</v>
       </c>
       <c r="W205" t="n">
-        <v>0.0183621272444725</v>
+        <v>9.70417822827585e-05</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5785598754882812</v>
       </c>
       <c r="V206" t="n">
-        <v>0.8296502828598022</v>
+        <v>0.8664032220840454</v>
       </c>
       <c r="W206" t="n">
-        <v>0.06304639577865601</v>
+        <v>0.08285379409790039</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5228321552276611</v>
       </c>
       <c r="V207" t="n">
-        <v>0.3717378973960876</v>
+        <v>0.8863108158111572</v>
       </c>
       <c r="W207" t="n">
-        <v>0.02282947488129139</v>
+        <v>0.1321167349815369</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5154600143432617</v>
       </c>
       <c r="V208" t="n">
-        <v>0.405481219291687</v>
+        <v>0.5235140323638916</v>
       </c>
       <c r="W208" t="n">
-        <v>0.01209533493965864</v>
+        <v>6.486720667453483e-05</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5183429718017578</v>
       </c>
       <c r="V209" t="n">
-        <v>0.9760792851448059</v>
+        <v>0.8786061406135559</v>
       </c>
       <c r="W209" t="n">
-        <v>0.2095225304365158</v>
+        <v>0.1297895461320877</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.519568920135498</v>
       </c>
       <c r="V210" t="n">
-        <v>0.6543192863464355</v>
+        <v>0.8730819821357727</v>
       </c>
       <c r="W210" t="n">
-        <v>0.01815766096115112</v>
+        <v>0.1249714866280556</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5232222080230713</v>
       </c>
       <c r="V211" t="n">
-        <v>0.4638242721557617</v>
+        <v>0.8870330452919006</v>
       </c>
       <c r="W211" t="n">
-        <v>0.003528114873915911</v>
+        <v>0.1323583275079727</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5290160179138184</v>
       </c>
       <c r="V212" t="n">
-        <v>0.4638285040855408</v>
+        <v>0.8727571368217468</v>
       </c>
       <c r="W212" t="n">
-        <v>0.004249412100762129</v>
+        <v>0.1181579604744911</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5199170112609863</v>
       </c>
       <c r="V213" t="n">
-        <v>0.3720992505550385</v>
+        <v>0.5173068642616272</v>
       </c>
       <c r="W213" t="n">
-        <v>0.0218500904738903</v>
+        <v>6.812867468397599e-06</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5137529373168945</v>
       </c>
       <c r="V214" t="n">
-        <v>0.3720975518226624</v>
+        <v>0.5175597071647644</v>
       </c>
       <c r="W214" t="n">
-        <v>0.02006624825298786</v>
+        <v>1.449149658583337e-05</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5117549896240234</v>
       </c>
       <c r="V215" t="n">
-        <v>0.8023541569709778</v>
+        <v>0.8726933598518372</v>
       </c>
       <c r="W215" t="n">
-        <v>0.08444787561893463</v>
+        <v>0.1302765011787415</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5118539333343506</v>
       </c>
       <c r="V216" t="n">
-        <v>0.4176499843597412</v>
+        <v>0.869109034538269</v>
       </c>
       <c r="W216" t="n">
-        <v>0.008874383755028248</v>
+        <v>0.127631202340126</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5675628185272217</v>
       </c>
       <c r="V217" t="n">
-        <v>0.4638583362102509</v>
+        <v>0.8764047622680664</v>
       </c>
       <c r="W217" t="n">
-        <v>0.01075461972504854</v>
+        <v>0.09538334608078003</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.520266056060791</v>
       </c>
       <c r="V218" t="n">
-        <v>0.8371423482894897</v>
+        <v>0.5200625658035278</v>
       </c>
       <c r="W218" t="n">
-        <v>0.1004105880856514</v>
+        <v>4.140828480103664e-08</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5196921825408936</v>
       </c>
       <c r="V219" t="n">
-        <v>0.4614622294902802</v>
+        <v>0.4009876251220703</v>
       </c>
       <c r="W219" t="n">
-        <v>0.003390727331861854</v>
+        <v>0.01409077178686857</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5184299945831299</v>
       </c>
       <c r="V220" t="n">
-        <v>0.8027225732803345</v>
+        <v>0.3990897238254547</v>
       </c>
       <c r="W220" t="n">
-        <v>0.08082226663827896</v>
+        <v>0.01424210052937269</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5161139965057373</v>
       </c>
       <c r="V221" t="n">
-        <v>0.4898227453231812</v>
+        <v>0.8678000569343567</v>
       </c>
       <c r="W221" t="n">
-        <v>0.0006912298849783838</v>
+        <v>0.1236830875277519</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3865790367126465</v>
       </c>
       <c r="V222" t="n">
-        <v>0.5245877504348755</v>
+        <v>0.8608889579772949</v>
       </c>
       <c r="W222" t="n">
-        <v>0.01904640533030033</v>
+        <v>0.2249699085950851</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3882319927215576</v>
       </c>
       <c r="V223" t="n">
-        <v>0.4175398349761963</v>
+        <v>0.5173913836479187</v>
       </c>
       <c r="W223" t="n">
-        <v>0.0008589496137574315</v>
+        <v>0.01668214797973633</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.392341136932373</v>
       </c>
       <c r="V224" t="n">
-        <v>0.3719204664230347</v>
+        <v>0.5170730352401733</v>
       </c>
       <c r="W224" t="n">
-        <v>0.0004170037864241749</v>
+        <v>0.01555804628878832</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3893389701843262</v>
       </c>
       <c r="V225" t="n">
-        <v>0.699232816696167</v>
+        <v>0.8706244230270386</v>
       </c>
       <c r="W225" t="n">
-        <v>0.09603419899940491</v>
+        <v>0.2316356897354126</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3910350799560547</v>
       </c>
       <c r="V226" t="n">
-        <v>0.417632520198822</v>
+        <v>0.4003326594829559</v>
       </c>
       <c r="W226" t="n">
-        <v>0.0007074238383211195</v>
+        <v>8.644498302601278e-05</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3922219276428223</v>
       </c>
       <c r="V227" t="n">
-        <v>0.4611094295978546</v>
+        <v>0.4009847342967987</v>
       </c>
       <c r="W227" t="n">
-        <v>0.004745488055050373</v>
+        <v>7.678678230149671e-05</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3892111778259277</v>
       </c>
       <c r="V228" t="n">
-        <v>0.4176340699195862</v>
+        <v>0.5334086418151855</v>
       </c>
       <c r="W228" t="n">
-        <v>0.0008078608079813421</v>
+        <v>0.02079290896654129</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4063241481781006</v>
       </c>
       <c r="V229" t="n">
-        <v>0.9756271839141846</v>
+        <v>0.886048436164856</v>
       </c>
       <c r="W229" t="n">
-        <v>0.3241059482097626</v>
+        <v>0.2301353961229324</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3878369331359863</v>
       </c>
       <c r="V230" t="n">
-        <v>0.5870922207832336</v>
+        <v>0.8918456435203552</v>
       </c>
       <c r="W230" t="n">
-        <v>0.03970266878604889</v>
+        <v>0.2540247738361359</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3924751281738281</v>
       </c>
       <c r="V231" t="n">
-        <v>0.6533396244049072</v>
+        <v>0.5237481594085693</v>
       </c>
       <c r="W231" t="n">
-        <v>0.06805028766393661</v>
+        <v>0.01723260805010796</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4192509651184082</v>
       </c>
       <c r="V232" t="n">
-        <v>0.5050956606864929</v>
+        <v>0.8818299174308777</v>
       </c>
       <c r="W232" t="n">
-        <v>0.007369311526417732</v>
+        <v>0.2139792889356613</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3950631618499756</v>
       </c>
       <c r="V233" t="n">
-        <v>0.8414528369903564</v>
+        <v>0.4001312255859375</v>
       </c>
       <c r="W233" t="n">
-        <v>0.1992637366056442</v>
+        <v>2.568527088442352e-05</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3978090286254883</v>
       </c>
       <c r="V234" t="n">
-        <v>0.4614459872245789</v>
+        <v>0.5212297439575195</v>
       </c>
       <c r="W234" t="n">
-        <v>0.004049662500619888</v>
+        <v>0.01523267291486263</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4466910362243652</v>
       </c>
       <c r="V235" t="n">
-        <v>0.8341859579086304</v>
+        <v>0.8776737451553345</v>
       </c>
       <c r="W235" t="n">
-        <v>0.1501523107290268</v>
+        <v>0.1857460886240005</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3940329551696777</v>
       </c>
       <c r="V236" t="n">
-        <v>0.4176599979400635</v>
+        <v>0.8728916645050049</v>
       </c>
       <c r="W236" t="n">
-        <v>0.0005582371377386153</v>
+        <v>0.2293056696653366</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3929460048675537</v>
       </c>
       <c r="V237" t="n">
-        <v>0.6546903848648071</v>
+        <v>0.5231047868728638</v>
       </c>
       <c r="W237" t="n">
-        <v>0.06851012259721756</v>
+        <v>0.01694130897521973</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3883669376373291</v>
       </c>
       <c r="V238" t="n">
-        <v>0.5930236577987671</v>
+        <v>0.5210765600204468</v>
       </c>
       <c r="W238" t="n">
-        <v>0.04188437387347221</v>
+        <v>0.01761184446513653</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3886668682098389</v>
       </c>
       <c r="V239" t="n">
-        <v>0.3895606100559235</v>
+        <v>0.5233174562454224</v>
       </c>
       <c r="W239" t="n">
-        <v>7.987744652382389e-07</v>
+        <v>0.01813078112900257</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3828158378601074</v>
       </c>
       <c r="V240" t="n">
-        <v>0.6928392648696899</v>
+        <v>0.8675062656402588</v>
       </c>
       <c r="W240" t="n">
-        <v>0.09611452370882034</v>
+        <v>0.2349248081445694</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.4546289443969727</v>
       </c>
       <c r="V241" t="n">
-        <v>0.6529941558837891</v>
+        <v>0.8743905425071716</v>
       </c>
       <c r="W241" t="n">
-        <v>0.03934875875711441</v>
+        <v>0.1761997938156128</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8916130065917969</v>
       </c>
       <c r="V242" t="n">
-        <v>0.655465304851532</v>
+        <v>0.8806237578392029</v>
       </c>
       <c r="W242" t="n">
-        <v>0.05576573684811592</v>
+        <v>0.0001207635868922807</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8693139553070068</v>
       </c>
       <c r="V243" t="n">
-        <v>0.5042588710784912</v>
+        <v>0.5229290723800659</v>
       </c>
       <c r="W243" t="n">
-        <v>0.1332652121782303</v>
+        <v>0.1199824884533882</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.867016077041626</v>
       </c>
       <c r="V244" t="n">
-        <v>0.5247882604598999</v>
+        <v>0.5119361877441406</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1171198785305023</v>
+        <v>0.1260817348957062</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.9662671089172363</v>
       </c>
       <c r="V245" t="n">
-        <v>0.3507513999938965</v>
+        <v>0.8718040585517883</v>
       </c>
       <c r="W245" t="n">
-        <v>0.3788595795631409</v>
+        <v>0.00892326794564724</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8788800239562988</v>
       </c>
       <c r="V246" t="n">
-        <v>0.9755959510803223</v>
+        <v>0.3998829126358032</v>
       </c>
       <c r="W246" t="n">
-        <v>0.009353970177471638</v>
+        <v>0.2294382303953171</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8716778755187988</v>
       </c>
       <c r="V247" t="n">
-        <v>0.9752137064933777</v>
+        <v>0.8702258467674255</v>
       </c>
       <c r="W247" t="n">
-        <v>0.0107196681201458</v>
+        <v>2.108387434418546e-06</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8707129955291748</v>
       </c>
       <c r="V248" t="n">
-        <v>0.4176412224769592</v>
+        <v>0.5279554724693298</v>
       </c>
       <c r="W248" t="n">
-        <v>0.2052740305662155</v>
+        <v>0.1174827218055725</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.9598050117492676</v>
       </c>
       <c r="V249" t="n">
-        <v>0.6531110405921936</v>
+        <v>0.8672638535499573</v>
       </c>
       <c r="W249" t="n">
-        <v>0.09406118839979172</v>
+        <v>0.008563865907490253</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8751721382141113</v>
       </c>
       <c r="V250" t="n">
-        <v>0.6531109213829041</v>
+        <v>0.8697780966758728</v>
       </c>
       <c r="W250" t="n">
-        <v>0.04931118339300156</v>
+        <v>2.909568502218463e-05</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8798120021820068</v>
       </c>
       <c r="V251" t="n">
-        <v>0.8004398941993713</v>
+        <v>0.5215452909469604</v>
       </c>
       <c r="W251" t="n">
-        <v>0.006299931555986404</v>
+        <v>0.1283550411462784</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8722288608551025</v>
       </c>
       <c r="V252" t="n">
-        <v>0.3778701424598694</v>
+        <v>0.4009620845317841</v>
       </c>
       <c r="W252" t="n">
-        <v>0.2443905472755432</v>
+        <v>0.2220923751592636</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>1.004408121109009</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5050980448722839</v>
+        <v>0.8736556172370911</v>
       </c>
       <c r="W253" t="n">
-        <v>0.2493105530738831</v>
+        <v>0.01709621772170067</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8757600784301758</v>
       </c>
       <c r="V254" t="n">
-        <v>0.4781287908554077</v>
+        <v>0.4010808765888214</v>
       </c>
       <c r="W254" t="n">
-        <v>0.1581106334924698</v>
+        <v>0.2253203392028809</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8689110279083252</v>
       </c>
       <c r="V255" t="n">
-        <v>0.3786694407463074</v>
+        <v>0.8658959269523621</v>
       </c>
       <c r="W255" t="n">
-        <v>0.2403368204832077</v>
+        <v>9.090833373193163e-06</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8707699775695801</v>
       </c>
       <c r="V256" t="n">
-        <v>0.4634914994239807</v>
+        <v>0.4032171666622162</v>
       </c>
       <c r="W256" t="n">
-        <v>0.1658757627010345</v>
+        <v>0.218605637550354</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.9313678741455078</v>
       </c>
       <c r="V257" t="n">
-        <v>0.5046958923339844</v>
+        <v>0.8738800883293152</v>
       </c>
       <c r="W257" t="n">
-        <v>0.1820489764213562</v>
+        <v>0.003304845420643687</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8635938167572021</v>
       </c>
       <c r="V258" t="n">
-        <v>0.6535240411758423</v>
+        <v>0.8779292106628418</v>
       </c>
       <c r="W258" t="n">
-        <v>0.04412931203842163</v>
+        <v>0.0002055035147350281</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8715140819549561</v>
       </c>
       <c r="V259" t="n">
-        <v>0.5262220501899719</v>
+        <v>0.5193082690238953</v>
       </c>
       <c r="W259" t="n">
-        <v>0.1192265897989273</v>
+        <v>0.1240489333868027</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8653049468994141</v>
       </c>
       <c r="V260" t="n">
-        <v>0.7080433368682861</v>
+        <v>0.8654817938804626</v>
       </c>
       <c r="W260" t="n">
-        <v>0.02473121322691441</v>
+        <v>3.127485470599822e-08</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.9250729084014893</v>
       </c>
       <c r="V261" t="n">
-        <v>0.35074183344841</v>
+        <v>0.8625303506851196</v>
       </c>
       <c r="W261" t="n">
-        <v>0.3298561573028564</v>
+        <v>0.003911571577191353</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5591721534729004</v>
       </c>
       <c r="V262" t="n">
-        <v>0.4906497597694397</v>
+        <v>0.8855493664741516</v>
       </c>
       <c r="W262" t="n">
-        <v>0.004695318639278412</v>
+        <v>0.1065220832824707</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5300519466400146</v>
       </c>
       <c r="V263" t="n">
-        <v>0.5037472248077393</v>
+        <v>0.5276226997375488</v>
       </c>
       <c r="W263" t="n">
-        <v>0.0006919383886270225</v>
+        <v>5.901240456296364e-06</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5166091918945312</v>
       </c>
       <c r="V264" t="n">
-        <v>0.3516814708709717</v>
+        <v>0.5196035504341125</v>
       </c>
       <c r="W264" t="n">
-        <v>0.02720115333795547</v>
+        <v>8.966183486336377e-06</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5137851238250732</v>
       </c>
       <c r="V265" t="n">
-        <v>0.3720111846923828</v>
+        <v>0.4001249670982361</v>
       </c>
       <c r="W265" t="n">
-        <v>0.02009985037147999</v>
+        <v>0.01291863154619932</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5742290019989014</v>
       </c>
       <c r="V266" t="n">
-        <v>0.3514944016933441</v>
+        <v>0.4001587927341461</v>
       </c>
       <c r="W266" t="n">
-        <v>0.04961070045828819</v>
+        <v>0.03030043840408325</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5162088871002197</v>
       </c>
       <c r="V267" t="n">
-        <v>0.6507607698440552</v>
+        <v>0.5226748585700989</v>
       </c>
       <c r="W267" t="n">
-        <v>0.01810420863330364</v>
+        <v>4.180878750048578e-05</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5228688716888428</v>
       </c>
       <c r="V268" t="n">
-        <v>0.4907240867614746</v>
+        <v>0.8860785365104675</v>
       </c>
       <c r="W268" t="n">
-        <v>0.001033287146128714</v>
+        <v>0.131921261548996</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.523996114730835</v>
       </c>
       <c r="V269" t="n">
-        <v>0.5052164793014526</v>
+        <v>0.8848691582679749</v>
       </c>
       <c r="W269" t="n">
-        <v>0.0003526747168507427</v>
+        <v>0.1302293539047241</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5222909450531006</v>
       </c>
       <c r="V270" t="n">
-        <v>0.8022716045379639</v>
+        <v>0.515774667263031</v>
       </c>
       <c r="W270" t="n">
-        <v>0.07838916778564453</v>
+        <v>4.246187745593488e-05</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5585231781005859</v>
       </c>
       <c r="V271" t="n">
-        <v>0.6533820629119873</v>
+        <v>0.39959517121315</v>
       </c>
       <c r="W271" t="n">
-        <v>0.008998207747936249</v>
+        <v>0.02525811083614826</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5330021381378174</v>
       </c>
       <c r="V272" t="n">
-        <v>0.4615108966827393</v>
+        <v>0.399113267660141</v>
       </c>
       <c r="W272" t="n">
-        <v>0.005110997706651688</v>
+        <v>0.01792622916400433</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5223870277404785</v>
       </c>
       <c r="V273" t="n">
-        <v>0.3507409393787384</v>
+        <v>0.5213437676429749</v>
       </c>
       <c r="W273" t="n">
-        <v>0.02946238033473492</v>
+        <v>1.088391627490637e-06</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5293920040130615</v>
       </c>
       <c r="V274" t="n">
-        <v>0.5946947336196899</v>
+        <v>0.5238453149795532</v>
       </c>
       <c r="W274" t="n">
-        <v>0.004264446441084146</v>
+        <v>3.07657610392198e-05</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5225329399108887</v>
       </c>
       <c r="V275" t="n">
-        <v>0.4904197454452515</v>
+        <v>0.5191983580589294</v>
       </c>
       <c r="W275" t="n">
-        <v>0.001031257212162018</v>
+        <v>1.111943583964603e-05</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5132830142974854</v>
       </c>
       <c r="V276" t="n">
-        <v>0.8341045379638672</v>
+        <v>0.8779047131538391</v>
       </c>
       <c r="W276" t="n">
-        <v>0.1029264479875565</v>
+        <v>0.1329489797353745</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5233111381530762</v>
       </c>
       <c r="V277" t="n">
-        <v>0.417663037776947</v>
+        <v>0.3998775780200958</v>
       </c>
       <c r="W277" t="n">
-        <v>0.01116152107715607</v>
+        <v>0.0152358440682292</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5212230682373047</v>
       </c>
       <c r="V278" t="n">
-        <v>0.8028735518455505</v>
+        <v>0.5322654247283936</v>
       </c>
       <c r="W278" t="n">
-        <v>0.07932699471712112</v>
+        <v>0.0001219336336362176</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5284659862518311</v>
       </c>
       <c r="V279" t="n">
-        <v>0.490907609462738</v>
+        <v>0.5285964608192444</v>
       </c>
       <c r="W279" t="n">
-        <v>0.001410631695762277</v>
+        <v>1.702361274169562e-08</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5253629684448242</v>
       </c>
       <c r="V280" t="n">
-        <v>0.8381872177124023</v>
+        <v>0.5272576212882996</v>
       </c>
       <c r="W280" t="n">
-        <v>0.09785901010036469</v>
+        <v>3.589709422158194e-06</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5246858596801758</v>
       </c>
       <c r="V281" t="n">
-        <v>0.8015877604484558</v>
+        <v>0.8726062178611755</v>
       </c>
       <c r="W281" t="n">
-        <v>0.07667466253042221</v>
+        <v>0.1210485771298409</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4657120704650879</v>
       </c>
       <c r="V282" t="n">
-        <v>0.4615276753902435</v>
+        <v>0.8632242679595947</v>
       </c>
       <c r="W282" t="n">
-        <v>1.750916271703318e-05</v>
+        <v>0.1580159515142441</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.3958520889282227</v>
       </c>
       <c r="V283" t="n">
-        <v>0.505433976650238</v>
+        <v>0.5278810262680054</v>
       </c>
       <c r="W283" t="n">
-        <v>0.0120081901550293</v>
+        <v>0.01743164099752903</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3975038528442383</v>
       </c>
       <c r="V284" t="n">
-        <v>0.4908800721168518</v>
+        <v>0.4024879634380341</v>
       </c>
       <c r="W284" t="n">
-        <v>0.008719118312001228</v>
+        <v>2.484135802660603e-05</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.3968760967254639</v>
       </c>
       <c r="V285" t="n">
-        <v>0.5245612859725952</v>
+        <v>0.8970708250999451</v>
       </c>
       <c r="W285" t="n">
-        <v>0.01630350761115551</v>
+        <v>0.2501947581768036</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3983209133148193</v>
       </c>
       <c r="V286" t="n">
-        <v>0.8386415839195251</v>
+        <v>0.8721587061882019</v>
       </c>
       <c r="W286" t="n">
-        <v>0.1938822865486145</v>
+        <v>0.2245222479104996</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3960919380187988</v>
       </c>
       <c r="V287" t="n">
-        <v>0.7035837173461914</v>
+        <v>0.4010924100875854</v>
       </c>
       <c r="W287" t="n">
-        <v>0.09455119073390961</v>
+        <v>2.500472146493848e-05</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.3974840641021729</v>
       </c>
       <c r="V288" t="n">
-        <v>0.5247950553894043</v>
+        <v>0.5221107006072998</v>
       </c>
       <c r="W288" t="n">
-        <v>0.01620808802545071</v>
+        <v>0.01553179882466793</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4083430767059326</v>
       </c>
       <c r="V289" t="n">
-        <v>0.5244113802909851</v>
+        <v>0.872115433216095</v>
       </c>
       <c r="W289" t="n">
-        <v>0.01347185112535954</v>
+        <v>0.2150848060846329</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3941519260406494</v>
       </c>
       <c r="V290" t="n">
-        <v>0.4176727831363678</v>
+        <v>0.4006570279598236</v>
       </c>
       <c r="W290" t="n">
-        <v>0.0005532306968234479</v>
+        <v>4.23163510276936e-05</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3918838500976562</v>
       </c>
       <c r="V291" t="n">
-        <v>0.4175451099872589</v>
+        <v>0.8638041615486145</v>
       </c>
       <c r="W291" t="n">
-        <v>0.0006585002411156893</v>
+        <v>0.2227087765932083</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4062309265136719</v>
       </c>
       <c r="V292" t="n">
-        <v>0.4638231992721558</v>
+        <v>0.8678228855133057</v>
       </c>
       <c r="W292" t="n">
-        <v>0.003316869959235191</v>
+        <v>0.2130671292543411</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.3950259685516357</v>
       </c>
       <c r="V293" t="n">
-        <v>0.5762282013893127</v>
+        <v>0.5222073197364807</v>
       </c>
       <c r="W293" t="n">
-        <v>0.0328342504799366</v>
+        <v>0.01617509685456753</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3876020908355713</v>
       </c>
       <c r="V294" t="n">
-        <v>0.8004262447357178</v>
+        <v>0.4001188576221466</v>
       </c>
       <c r="W294" t="n">
-        <v>0.1704237759113312</v>
+        <v>0.000156669455463998</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3975529670715332</v>
       </c>
       <c r="V295" t="n">
-        <v>0.5908601880073547</v>
+        <v>0.529119074344635</v>
       </c>
       <c r="W295" t="n">
-        <v>0.03736768290400505</v>
+        <v>0.0173096414655447</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.4018018245697021</v>
       </c>
       <c r="V296" t="n">
-        <v>0.5826250314712524</v>
+        <v>0.4011203944683075</v>
       </c>
       <c r="W296" t="n">
-        <v>0.03269703313708305</v>
+        <v>4.643469821985491e-07</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.3973698616027832</v>
       </c>
       <c r="V297" t="n">
-        <v>0.490329772233963</v>
+        <v>0.4000044167041779</v>
       </c>
       <c r="W297" t="n">
-        <v>0.008641544729471207</v>
+        <v>6.940880666661542e-06</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3951141834259033</v>
       </c>
       <c r="V298" t="n">
-        <v>0.3783480226993561</v>
+        <v>0.5201380252838135</v>
       </c>
       <c r="W298" t="n">
-        <v>0.0002811041485983878</v>
+        <v>0.01563096046447754</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3976459503173828</v>
       </c>
       <c r="V299" t="n">
-        <v>0.7081183791160583</v>
+        <v>0.5216017365455627</v>
       </c>
       <c r="W299" t="n">
-        <v>0.09639313071966171</v>
+        <v>0.01536503713577986</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3976891040802002</v>
       </c>
       <c r="V300" t="n">
-        <v>0.3507504463195801</v>
+        <v>0.8704285025596619</v>
       </c>
       <c r="W300" t="n">
-        <v>0.002203237498179078</v>
+        <v>0.22348253428936</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.4209117889404297</v>
       </c>
       <c r="V301" t="n">
-        <v>0.5762007236480713</v>
+        <v>0.8809172511100769</v>
       </c>
       <c r="W301" t="n">
-        <v>0.02411465346813202</v>
+        <v>0.2116050273180008</v>
       </c>
     </row>
     <row r="302" spans="1:23">
